--- a/Data/g3.9c.xlsx
+++ b/Data/g3.9c.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11c variação 2023-2013" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11c variação" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Posição</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,11 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +485,11 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +503,11 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +521,11 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +539,11 @@
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +557,11 @@
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +575,11 @@
       <c r="C8" t="n">
         <v>7</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -551,6 +591,11 @@
         <v>-14.10852261508702</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -562,6 +607,11 @@
         <v>-18.48142060960311</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-2013</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g3.9c.xlsx
+++ b/Data/g3.9c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,68 +462,68 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.58544544907399</v>
+        <v>36.18619365798551</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.276738536094147</v>
+        <v>14.06202497955705</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.73883793298126</v>
+        <v>9.903224112947802</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0570814535459177</v>
+        <v>8.673905343232624</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
@@ -534,82 +534,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3462260757255012</v>
+        <v>7.880778098376318</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.359620456037581</v>
+        <v>3.288256738162775</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.806266318172046</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
+        <v>-11.85100096624091</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.10852261508702</v>
+        <v>-16.72189676051594</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-2013</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-18.48142060960311</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2023-2013</t>
+          <t>2024-2013</t>
         </is>
       </c>
     </row>

--- a/Data/g3.9c.xlsx
+++ b/Data/g3.9c.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.11c variação" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="g3.9c variação" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
